--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/J集市信息表_Bazzar_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/J集市信息表_Bazzar_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC0C0-1A62-441A-9F1B-4FEB7E823FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC6E5C-CF50-4535-91DB-FE07A2B4D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -91,37 +91,37 @@
     <t>Mercador de Habilidades</t>
   </si>
   <si>
-    <t>Mercador Ambulante 1</t>
-  </si>
-  <si>
-    <t>Mercador Ambulante 2</t>
-  </si>
-  <si>
-    <t>Mercador Ambulante Sênior 1</t>
-  </si>
-  <si>
-    <t>Mercador de Bestas Comuns</t>
-  </si>
-  <si>
-    <t>Mercenário Comum da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Mercenário Comum do Mastigure</t>
-  </si>
-  <si>
-    <t>Mercenário Comum da Brasa</t>
-  </si>
-  <si>
-    <t>Fortaleza da Pedra Vermelha: Mercado dos Artesãos</t>
-  </si>
-  <si>
-    <t>Vale do Gelo: Mercado da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Fontes Sombrias: Mercado do Deserto</t>
-  </si>
-  <si>
-    <t>Fleur: Mercado das Flores</t>
+    <t>Mercador Viajante 1</t>
+  </si>
+  <si>
+    <t>Mercador Viajante 2</t>
+  </si>
+  <si>
+    <t>Bazar da Rosa Branca no Vale do Gelo</t>
+  </si>
+  <si>
+    <t>Bazar das Cem Flores em Aldeia das Flores</t>
+  </si>
+  <si>
+    <t>Bazar de Vento e Areia em Fontes Secas</t>
+  </si>
+  <si>
+    <t>Bazar dos Artesãos de Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Mercador Viajante Avançado 1</t>
+  </si>
+  <si>
+    <t>Comerciante de Bestas Comum</t>
+  </si>
+  <si>
+    <t>Mercenário da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Mercenário de Mestigure</t>
+  </si>
+  <si>
+    <t>Mercenário do Fogo Ardente</t>
   </si>
 </sst>
 </file>
@@ -519,15 +519,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,8 +559,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -636,8 +636,8 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,8 +647,8 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,8 +658,8 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,8 +669,8 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,8 +680,8 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,8 +691,8 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
